--- a/Kwok, Timothy Excel File.xlsx
+++ b/Kwok, Timothy Excel File.xlsx
@@ -136,7 +136,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +157,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -472,11 +475,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -519,12 +522,553 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>2017</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="6">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Kwok, Timothy Excel File.xlsx
+++ b/Kwok, Timothy Excel File.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\BIR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="96" yWindow="96" windowWidth="22932" windowHeight="10032"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Month</t>
   </si>
@@ -47,12 +52,15 @@
   <si>
     <t>Net Amount</t>
   </si>
+  <si>
+    <t>Febuary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +179,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -217,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +265,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +317,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,14 +510,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
@@ -474,7 +526,7 @@
     <col min="5" max="5" width="27" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -487,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -504,7 +556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -521,7 +573,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2017</v>
       </c>
@@ -538,532 +590,540 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1080,24 +1140,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kwok, Timothy Excel File.xlsx
+++ b/Kwok, Timothy Excel File.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Month</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Febuary</t>
+  </si>
+  <si>
+    <t>March</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A3:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,10 +610,18 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>18000</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
